--- a/Running projects/Gul Ahmed Energy Limited/VO/Summary of VOs.xlsx
+++ b/Running projects/Gul Ahmed Energy Limited/VO/Summary of VOs.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B960A129-1886-4170-A4B1-12C5823DBE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B461675E-7D85-4286-B0FA-5A15716A2091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$25</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -317,6 +324,118 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="HVAC"/>
+      <sheetName val="eee"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="43">
+          <cell r="H43">
+            <v>1306085</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="28">
+          <cell r="I28">
+            <v>377600</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="28">
+          <cell r="I28">
+            <v>228096</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="27">
+          <cell r="I27">
+            <v>53120</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="32">
+          <cell r="H32">
+            <v>1359622</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -609,7 +728,7 @@
   <dimension ref="A7:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -671,7 +790,8 @@
         <v>7</v>
       </c>
       <c r="C16" s="16">
-        <v>2512279</v>
+        <f>[5]Sheet1!$H$32</f>
+        <v>1359622</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -682,7 +802,8 @@
         <v>8</v>
       </c>
       <c r="C17" s="16">
-        <v>1794085</v>
+        <f>[1]HVAC!$H$43</f>
+        <v>1306085</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -693,6 +814,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="16">
+        <f>[2]Sheet1!$I$28</f>
         <v>377600</v>
       </c>
     </row>
@@ -704,6 +826,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="16">
+        <f>[3]Sheet1!$I$28</f>
         <v>228096</v>
       </c>
     </row>
@@ -715,6 +838,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="16">
+        <f>[4]Sheet1!$I$27</f>
         <v>53120</v>
       </c>
     </row>
@@ -730,7 +854,7 @@
       </c>
       <c r="C22" s="20">
         <f>SUM(C16:C21)</f>
-        <v>4965180</v>
+        <v>3324523</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">

--- a/Running projects/Gul Ahmed Energy Limited/VO/Summary of VOs.xlsx
+++ b/Running projects/Gul Ahmed Energy Limited/VO/Summary of VOs.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B461675E-7D85-4286-B0FA-5A15716A2091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B222B70-30E0-41E7-AAD5-54EA989F10DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,19 +13,16 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$26</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Sr #</t>
   </si>
@@ -60,9 +57,6 @@
     <t>Variation order of spare parts</t>
   </si>
   <si>
-    <t>Variation order of Copper piping</t>
-  </si>
-  <si>
     <t>Variation order of Additional casstte type units and Y Joints</t>
   </si>
   <si>
@@ -70,6 +64,12 @@
   </si>
   <si>
     <t>Variation order of re route of ducting</t>
+  </si>
+  <si>
+    <t>Variation order of Extra VRF work</t>
+  </si>
+  <si>
+    <t>Variation order of VRF system</t>
   </si>
 </sst>
 </file>
@@ -327,43 +327,16 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="HVAC"/>
-      <sheetName val="eee"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="43">
-          <cell r="H43">
-            <v>1306085</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="28">
-          <cell r="I28">
-            <v>377600</v>
+        <row r="32">
+          <cell r="H32">
+            <v>1359622</v>
           </cell>
         </row>
       </sheetData>
@@ -372,34 +345,9 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="28">
-          <cell r="I28">
-            <v>228096</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Sheet1"/>
     </sheetNames>
@@ -416,32 +364,10 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="32">
-          <cell r="H32">
-            <v>1359622</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -479,9 +405,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -514,9 +440,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -549,9 +492,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -725,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A7:D26"/>
+  <dimension ref="A7:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -790,7 +750,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="16">
-        <f>[5]Sheet1!$H$32</f>
+        <f>[1]Sheet1!$H$32</f>
         <v>1359622</v>
       </c>
     </row>
@@ -799,23 +759,19 @@
         <v>2</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C17" s="16">
-        <f>[1]HVAC!$H$43</f>
-        <v>1306085</v>
+        <v>2120602</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>2</v>
-      </c>
+      <c r="A18" s="11"/>
       <c r="B18" s="15" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C18" s="16">
-        <f>[2]Sheet1!$I$28</f>
-        <v>377600</v>
+        <v>1266000</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -823,11 +779,10 @@
         <v>2</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C19" s="16">
-        <f>[3]Sheet1!$I$28</f>
-        <v>228096</v>
+        <v>324500</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -835,41 +790,52 @@
         <v>2</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" s="16">
-        <f>[4]Sheet1!$I$27</f>
+        <v>191620</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="16">
+        <f>[2]Sheet1!$I$27</f>
         <v>53120</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="8"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="10"/>
-    </row>
-    <row r="22" spans="1:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19" t="s">
+    <row r="22" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="8"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="10"/>
+    </row>
+    <row r="23" spans="1:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="18"/>
+      <c r="B23" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="20">
-        <f>SUM(C16:C21)</f>
-        <v>3324523</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D26" s="9"/>
+      <c r="C23" s="20">
+        <f>SUM(C16:C22)</f>
+        <v>5315464</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D27" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="1" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>

--- a/Running projects/Gul Ahmed Energy Limited/VO/Summary of VOs.xlsx
+++ b/Running projects/Gul Ahmed Energy Limited/VO/Summary of VOs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B222B70-30E0-41E7-AAD5-54EA989F10DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A34B64-F023-426A-84BF-19E1DBAA9B8F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -688,7 +688,7 @@
   <dimension ref="A7:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -762,7 +762,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="16">
-        <v>2120602</v>
+        <v>3670126</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" s="20">
         <f>SUM(C16:C22)</f>
-        <v>5315464</v>
+        <v>6864988</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">

--- a/Running projects/Gul Ahmed Energy Limited/VO/Summary of VOs.xlsx
+++ b/Running projects/Gul Ahmed Energy Limited/VO/Summary of VOs.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A34B64-F023-426A-84BF-19E1DBAA9B8F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70697630-64BD-4183-BFD2-7E6734688830}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$26</definedName>
@@ -63,13 +62,13 @@
     <t>Variation order of Wall mounted indoor units</t>
   </si>
   <si>
-    <t>Variation order of re route of ducting</t>
-  </si>
-  <si>
     <t>Variation order of Extra VRF work</t>
   </si>
   <si>
     <t>Variation order of VRF system</t>
+  </si>
+  <si>
+    <t>Variation order of SS Drain Tray</t>
   </si>
 </sst>
 </file>
@@ -337,25 +336,6 @@
         <row r="32">
           <cell r="H32">
             <v>1359622</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="27">
-          <cell r="I27">
-            <v>53120</v>
           </cell>
         </row>
       </sheetData>
@@ -688,7 +668,7 @@
   <dimension ref="A7:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -759,7 +739,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" s="16">
         <v>3670126</v>
@@ -768,7 +748,7 @@
     <row r="18" spans="1:4" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="16">
         <v>1266000</v>
@@ -801,11 +781,10 @@
         <v>2</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C21" s="16">
-        <f>[2]Sheet1!$I$27</f>
-        <v>53120</v>
+        <v>104960</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -820,7 +799,7 @@
       </c>
       <c r="C23" s="20">
         <f>SUM(C16:C22)</f>
-        <v>6864988</v>
+        <v>6916828</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
